--- a/nba-data/nba-team-info.xlsx
+++ b/nba-data/nba-team-info.xlsx
@@ -856,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
